--- a/Simulation status.xlsx
+++ b/Simulation status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkali\OneDrive - weizmann.ac.il\Current Semester\Research\Simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaeka\OneDrive - weizmann.ac.il\Current Semester\Research\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB56426-E9C6-4B59-B75A-A8B68BD8A0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{263558FC-4EEC-47BA-9408-6F317CCBC191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6E029B14-007C-47A5-86EA-AD3357A85AF3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6AB3376-739E-45E2-99F9-7EA049DF8086}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{C6AB3376-739E-45E2-99F9-7EA049DF8086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>ring</t>
   </si>
@@ -63,7 +63,7 @@
     <t>tilted</t>
   </si>
   <si>
-    <t>can be checked analytically</t>
+    <t>-</t>
   </si>
   <si>
     <t>comment value</t>
@@ -77,10 +77,7 @@
 horizontal</t>
   </si>
   <si>
-    <t>does approach the correct attenuation factor, but not the correct power ratio</t>
-  </si>
-  <si>
-    <t>seems to approach the correct attenuation factor, but not the correct power ratio</t>
+    <t>correct attenuation ratio, wron power (perhaps it goes to 4)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +149,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,13 +479,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD73F7B2-3CB9-4DB7-8F5F-E336C7552578}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -522,8 +521,8 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -536,8 +535,8 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -549,11 +548,8 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -566,8 +562,8 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -587,8 +583,8 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,8 +597,8 @@
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -614,8 +610,8 @@
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -637,11 +633,8 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -669,8 +662,8 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,8 +676,8 @@
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,8 +703,8 @@
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -731,8 +724,8 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,8 +738,8 @@
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,11 +771,8 @@
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>7</v>
@@ -796,6 +786,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C12:C13"/>
@@ -804,18 +800,29 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="584eacc6-2383-4792-a43b-90dda6e43e2d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089BC74D9B2D93B44ABB275D9C2952787" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="054e7791e8d6a34cbe147612a3aa02ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="584eacc6-2383-4792-a43b-90dda6e43e2d" xmlns:ns4="25331bf9-e08e-4054-a47b-55a981296790" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91bf25063f6a75d29fdfcb79b3cf5e5f" ns3:_="" ns4:_="">
     <xsd:import namespace="584eacc6-2383-4792-a43b-90dda6e43e2d"/>
@@ -1044,24 +1051,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101679B-7490-447B-80A4-26CBD1C0D8D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="25331bf9-e08e-4054-a47b-55a981296790"/>
+    <ds:schemaRef ds:uri="584eacc6-2383-4792-a43b-90dda6e43e2d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="584eacc6-2383-4792-a43b-90dda6e43e2d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5814D736-C335-4435-B741-64701D041A29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57338833-AA22-4D0C-A17D-CC715CE319DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1078,29 +1093,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5814D736-C335-4435-B741-64701D041A29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2101679B-7490-447B-80A4-26CBD1C0D8D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="25331bf9-e08e-4054-a47b-55a981296790"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="584eacc6-2383-4792-a43b-90dda6e43e2d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>